--- a/Documentazione/ANOVA.xlsx
+++ b/Documentazione/ANOVA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mauroficorella/GitHub/Human-Computer-Interaction/Documentazione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\GitHub\Human-Computer-Interaction\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A60A95-2484-2F40-B8EE-14EDAA97AF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C202B2-2589-4522-8B96-7646FF90C312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27220" xr2:uid="{D6A294CD-8ED0-4948-BFE2-5071E80F0726}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{59FABE84-7E1B-4B32-93AF-68DBFFC30370}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,64 +42,64 @@
     <t>VERSION 2</t>
   </si>
   <si>
-    <t>Analisi varianza: ad un fattore</t>
-  </si>
-  <si>
-    <t>RIEPILOGO</t>
-  </si>
-  <si>
-    <t>Gruppi</t>
-  </si>
-  <si>
-    <t>Conteggio</t>
-  </si>
-  <si>
-    <t>Somma</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Varianza</t>
-  </si>
-  <si>
-    <t>Colonna 1</t>
-  </si>
-  <si>
-    <t>Colonna 2</t>
-  </si>
-  <si>
-    <t>ANALISI VARIANZA</t>
-  </si>
-  <si>
-    <t>Origine della variazione</t>
-  </si>
-  <si>
-    <t>SQ</t>
-  </si>
-  <si>
-    <t>gdl</t>
-  </si>
-  <si>
-    <t>MQ</t>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Valore di significatività</t>
+    <t>P-value</t>
   </si>
   <si>
     <t>F crit</t>
   </si>
   <si>
-    <t>Tra gruppi</t>
-  </si>
-  <si>
-    <t>In gruppi</t>
-  </si>
-  <si>
-    <t>Totale</t>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +116,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,16 +163,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,7 +191,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,28 +486,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2D68B1-A2B3-1847-9DD9-BA4ECD51CB39}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A62F2-54E6-4A92-B0B1-0FC3F81B28CB}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -512,216 +516,233 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18.766666666666676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>226</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>58.266666666666623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>112</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
-        <v>26.285714285714285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>180</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>70.571428571428569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="B24" s="1">
+        <v>296.45000000000005</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>296.45000000000005</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7.6966681090437055</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.2506464712582011E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4.4138734191705664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>693.3</v>
+      </c>
+      <c r="C25" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1">
-        <v>289</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>289</v>
-      </c>
-      <c r="E23" s="1">
-        <v>5.9675516224188785</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.8431742678403166E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4.6001099366694227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>678</v>
-      </c>
-      <c r="C24" s="1">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1">
-        <v>48.428571428571431</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>38.516666666666666</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2">
-        <v>967</v>
-      </c>
-      <c r="C26" s="2">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B27" s="2">
+        <v>989.75</v>
+      </c>
+      <c r="C27" s="2">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>